--- a/frontend/public/AddLeads_AdminSample.xlsx
+++ b/frontend/public/AddLeads_AdminSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\start_s9m8uyc\Desktop\Sahay Project copy\sahay-crm\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\start\OneDrive\Desktop\2.0\sahay-crm\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43204E62-A1BE-4614-AED4-24BE6B7364A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0160EAD0-9CFC-4C82-AB02-18A58A0FD1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,26 +99,34 @@
     <t>nimesh@dummy.com</t>
   </si>
   <si>
-    <t>Raunak</t>
-  </si>
-  <si>
-    <t>raunak@dummy.com</t>
-  </si>
-  <si>
     <t>Rahul</t>
   </si>
   <si>
     <t>rahul@dummy@gmail.com</t>
+  </si>
+  <si>
+    <t>Ronak</t>
+  </si>
+  <si>
+    <t>ronak@dummy.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,14 +149,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,25 +552,28 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2">
         <v>7489651237</v>
       </c>
-      <c r="N2" t="s">
-        <v>25</v>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P2">
         <v>8787945612</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{944775EC-2482-4429-B911-C993EF8466D1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>